--- a/StructureDefinition-ext-R5-PlanDefinition.act.output.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.act.output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
     <t>A human-readable label for the data requirement used to label data flows in BPMN or similar diagrams. Also provides a human readable label when rendering the data requirement that conveys its purpose to human readers.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.title` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.output.title` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -419,7 +419,7 @@
     <t>Defines the data that results as output from the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.requirement` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.output.requirement` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:requirement.id</t>
@@ -450,7 +450,7 @@
     <t>The relatedData element allows indicating that the output of child action is also the output of a parent action. It also allows the input of one action to be identified as the output of a different action</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.relatedData` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.output.relatedData` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedData.id</t>
@@ -812,7 +812,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="110.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="156.42578125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
